--- a/medicine/Mort/Cimetière_de_Dorotheenstadt/Cimetière_de_Dorotheenstadt.xlsx
+++ b/medicine/Mort/Cimetière_de_Dorotheenstadt/Cimetière_de_Dorotheenstadt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Dorotheenstadt</t>
+          <t>Cimetière_de_Dorotheenstadt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Dorotheenstadt (Dorotheenstädtischer Friedhof) est un cimetière classé de Berlin-Mitte à Dorotheenstadt,
 dans le centre historique de la capitale allemande.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Dorotheenstadt</t>
+          <t>Cimetière_de_Dorotheenstadt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La ville de Berlin s'étant particulièrement agrandie au milieu du XVIIIe siècle, il devient nécessaire de trouver un nouveau lieu de sépulture. Aussi le roi Frédéric le Grand accorde-t-il le droit d'aménager un nouveau cimetière en dehors des murs de l’octroi, afin d'éviter les risques d'épidémie. Sa fondation date de 1762, juste à côté du cimetière français qui sera fondé en 1780. Il s'agit au début d'un cimetière pour des citadins peu fortunés, mais lorsque le quartier s'étend avec des institutions prestigieuses comme l'académie des arts, l'académie de chant, l'académie d'architecture, l'académie des sciences, ou l'université de Berlin, celui-ci change d'aspect et ses nouveaux habitants se font ériger des sépultures de qualité au cimetière.
 Le cimetière de Dorotheenstadt est agrandi plusieurs fois entre 1814 et 1826 et en 1834 la communauté paroissiale luthérienne de Dorotheenstadt acquiert une parcelle importante (appelée aujourd'hui cimetière Dorotheenstadt II) dans le quartier de Gesundbrunnen. La communauté de Friedrichswerder en acquiert une à Kreuzberg. Les deux communautés fusionnent en 1945, et celle de Friedrichswerder à la responsabilité des deux cimetières depuis 1961.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Dorotheenstadt</t>
+          <t>Cimetière_de_Dorotheenstadt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Johannes R. Becher (1891-1958), poète et ministre de la culture de la République démocratique allemande ;
@@ -614,7 +630,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Dorotheenstadt</t>
+          <t>Cimetière_de_Dorotheenstadt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -632,7 +648,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Tombe de Johannes R. Becher.
@@ -666,7 +684,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Dorotheenstadt</t>
+          <t>Cimetière_de_Dorotheenstadt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -684,7 +702,9 @@
           <t>Monument à la résistance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une croix d'acier s'élève à côté d'un monument en l'honneur de résistants victimes du national-socialisme. Leurs noms sont gravés sur la pierre: Klaus Bonhoeffer (1901-1945), frère de Dietrich Bonhoeffer; Hans John (1911-1945); Richard Kuenzer; Carl Adolf Marks (1894-1945); Wilhelm zur Nieden (1878-1945); Friedrich Justus Perels (1910-1945); Rüdiger Schleicher (1895-1945); et Hans Ludwig Sierks (de) (1877-1945). Ils ont tous été arrêtés après l'attentat du 20 juillet 1944 contre Hitler et ont été fusillés dans la nuit du 22 au 23 avril 1945 par un commando SS dans un parc attenant.
 Le monument porte aussi la mémoire de Dietrich Bonhoeffer et de Hans von Dohnanyi, résistants qui ont trouvé la mort aux camps de concentration de Flossenburg et de Sachsenhausen, tandis que Justus Delbrück a survécu à la guerre, mais est mort dans un camp de prisonniers soviétique.
